--- a/July.xlsx
+++ b/July.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AsianAgri\Timesheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TimeSheet!$A$1:$AF$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>ACCOUNTING TIME SHEET</t>
   </si>
@@ -184,9 +179,6 @@
     <t>Onboarding, introductory and initial discussion with Pa.Johan and Pa.Niko</t>
   </si>
   <si>
-    <t>Activities &amp; Plan Status List</t>
-  </si>
-  <si>
     <t>30th</t>
   </si>
   <si>
@@ -211,9 +203,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>I got agenda book, my fingers print are registered in absence machine in office doors.</t>
-  </si>
-  <si>
     <t>Still have no identity card, email access, windows active directory login, portal login.</t>
   </si>
   <si>
@@ -223,12 +212,6 @@
     <t>Visual Studio 2017 on my virtual machine hasn't yet able to download tool from nuGet since I had no access to be connected with Internet.</t>
   </si>
   <si>
-    <t>It should be long term project for me.</t>
-  </si>
-  <si>
-    <t>Setting up Visual studio 2017 and xampp as my tools to develop system requested by Pa.Johan. Database had been restored to my VM server and I can continue to finish the work</t>
-  </si>
-  <si>
     <t>Yoke Boon</t>
   </si>
   <si>
@@ -281,6 +264,24 @@
   </si>
   <si>
     <t>Coding back end (Printer Friendly, Export to Excel, Export to Word)</t>
+  </si>
+  <si>
+    <t>I got agenda book, my fingers print are registered in absence machine in office doors. I got email account (eric_nainggolan@globalnet.lcl)</t>
+  </si>
+  <si>
+    <t>Setting up Visual studio 2017 and xampp (using mysql as database engine) as my tools to develop system requested by Pa.Johan. Database had been restored to my VM server and I can continue to finish the work</t>
+  </si>
+  <si>
+    <t>Pak.Nico expecting that Redis can be combined with Oracle 11g</t>
+  </si>
+  <si>
+    <t>AdminLTE has been setup in VS2017 inside my VM. But somehow the solution can't be debugged, perhaps the authentication security doesn't allow VS to create debugged folder/file in some of target path.</t>
+  </si>
+  <si>
+    <t>Pa.Johan expecting that next week he can some of the new report pages. At least two menus would be done by next week</t>
+  </si>
+  <si>
+    <t>Plan &amp; Status List For application report requested by Pa.Johan</t>
   </si>
 </sst>
 </file>
@@ -460,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -938,17 +939,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -1138,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,7 +1308,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,7 +1317,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,7 +1326,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1335,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1344,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,122 +1371,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1521,17 +1412,95 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,7 +1543,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1687,7 +1656,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1899,7 +1868,7 @@
   <dimension ref="A1:AH38"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="U8" sqref="U8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1996,7 +1965,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2054,22 +2023,22 @@
       </c>
       <c r="S8" s="41"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="104">
+      <c r="U8" s="117">
         <v>43675</v>
       </c>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
       <c r="X8" s="42"/>
       <c r="Y8" s="42"/>
       <c r="Z8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="104">
+      <c r="AA8" s="117">
         <v>43677</v>
       </c>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="117"/>
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
@@ -2239,7 +2208,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE12" s="1">
         <v>8</v>
@@ -2909,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AX20" sqref="AX20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3059,157 +3028,157 @@
       <c r="BR1"/>
     </row>
     <row r="2" spans="2:70" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="106"/>
-      <c r="BC2" s="106"/>
-      <c r="BD2" s="106"/>
-      <c r="BE2" s="106"/>
-      <c r="BF2" s="106"/>
-      <c r="BG2" s="106"/>
-      <c r="BH2" s="106"/>
-      <c r="BI2" s="106"/>
-      <c r="BJ2" s="106"/>
-      <c r="BK2" s="106"/>
-      <c r="BL2" s="106"/>
-      <c r="BM2" s="106"/>
-      <c r="BN2" s="106"/>
-      <c r="BO2" s="106"/>
-      <c r="BP2" s="106"/>
-      <c r="BQ2" s="106"/>
-      <c r="BR2" s="107"/>
+      <c r="B2" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="125"/>
+      <c r="BK2" s="125"/>
+      <c r="BL2" s="125"/>
+      <c r="BM2" s="125"/>
+      <c r="BN2" s="125"/>
+      <c r="BO2" s="125"/>
+      <c r="BP2" s="125"/>
+      <c r="BQ2" s="125"/>
+      <c r="BR2" s="126"/>
     </row>
     <row r="3" spans="2:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="131" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="116"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="69"/>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="112"/>
-      <c r="AR3" s="112"/>
-      <c r="AS3" s="112"/>
-      <c r="AT3" s="112"/>
-      <c r="AU3" s="112"/>
-      <c r="AV3" s="112"/>
-      <c r="AW3" s="112"/>
-      <c r="AX3" s="112"/>
-      <c r="AY3" s="112"/>
-      <c r="AZ3" s="112"/>
-      <c r="BA3" s="112"/>
-      <c r="BB3" s="112"/>
-      <c r="BC3" s="112"/>
-      <c r="BD3" s="112"/>
-      <c r="BE3" s="112"/>
-      <c r="BF3" s="112"/>
-      <c r="BG3" s="112"/>
-      <c r="BH3" s="112"/>
-      <c r="BI3" s="112"/>
-      <c r="BJ3" s="112"/>
-      <c r="BK3" s="112"/>
-      <c r="BL3" s="112"/>
-      <c r="BM3" s="112"/>
-      <c r="BN3" s="112"/>
-      <c r="BO3" s="112"/>
-      <c r="BP3" s="112"/>
-      <c r="BQ3" s="112"/>
-      <c r="BR3" s="113"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="129"/>
+      <c r="AW3" s="129"/>
+      <c r="AX3" s="129"/>
+      <c r="AY3" s="129"/>
+      <c r="AZ3" s="129"/>
+      <c r="BA3" s="129"/>
+      <c r="BB3" s="129"/>
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="129"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="129"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
+      <c r="BR3" s="130"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="115"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="57"/>
       <c r="D4" s="58">
         <v>29</v>
@@ -3239,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="58"/>
-      <c r="P4" s="133">
+      <c r="P4" s="100">
         <f t="shared" ref="P4" si="3">N4+1</f>
         <v>4</v>
       </c>
@@ -3269,12 +3238,12 @@
         <v>9</v>
       </c>
       <c r="AA4" s="58"/>
-      <c r="AB4" s="133">
+      <c r="AB4" s="100">
         <f t="shared" ref="AB4" si="9">Z4+1</f>
         <v>10</v>
       </c>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133">
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100">
         <f t="shared" ref="AD4" si="10">AB4+1</f>
         <v>11</v>
       </c>
@@ -3304,12 +3273,12 @@
         <v>16</v>
       </c>
       <c r="AO4" s="58"/>
-      <c r="AP4" s="58">
+      <c r="AP4" s="100">
         <f t="shared" ref="AP4" si="16">AN4+1</f>
         <v>17</v>
       </c>
       <c r="AQ4" s="58"/>
-      <c r="AR4" s="133">
+      <c r="AR4" s="100">
         <f t="shared" ref="AR4" si="17">AP4+1</f>
         <v>18</v>
       </c>
@@ -3339,12 +3308,12 @@
         <v>23</v>
       </c>
       <c r="BC4" s="58"/>
-      <c r="BD4" s="133">
+      <c r="BD4" s="100">
         <f t="shared" ref="BD4" si="23">BB4+1</f>
         <v>24</v>
       </c>
-      <c r="BE4" s="133"/>
-      <c r="BF4" s="133">
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="100">
         <f t="shared" ref="BF4" si="24">BD4+1</f>
         <v>25</v>
       </c>
@@ -3380,7 +3349,7 @@
       </c>
     </row>
     <row r="5" spans="2:70" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="53"/>
@@ -3396,7 +3365,7 @@
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
-      <c r="P5" s="134"/>
+      <c r="P5" s="101"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
       <c r="S5" s="53"/>
@@ -3408,9 +3377,9 @@
       <c r="Y5" s="53"/>
       <c r="Z5" s="53"/>
       <c r="AA5" s="53"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
       <c r="AE5" s="53"/>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
@@ -3422,9 +3391,9 @@
       <c r="AM5" s="53"/>
       <c r="AN5" s="53"/>
       <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
+      <c r="AP5" s="101"/>
       <c r="AQ5" s="53"/>
-      <c r="AR5" s="134"/>
+      <c r="AR5" s="101"/>
       <c r="AS5" s="53"/>
       <c r="AT5" s="53"/>
       <c r="AU5" s="53"/>
@@ -3436,9 +3405,9 @@
       <c r="BA5" s="53"/>
       <c r="BB5" s="53"/>
       <c r="BC5" s="53"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
+      <c r="BD5" s="101"/>
+      <c r="BE5" s="101"/>
+      <c r="BF5" s="101"/>
       <c r="BG5" s="53"/>
       <c r="BH5" s="53"/>
       <c r="BI5" s="53"/>
@@ -3453,13 +3422,13 @@
       <c r="BR5" s="61"/>
     </row>
     <row r="6" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="49"/>
       <c r="J6" s="50"/>
       <c r="K6" s="49"/>
@@ -3467,7 +3436,7 @@
       <c r="M6" s="49"/>
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
-      <c r="P6" s="135"/>
+      <c r="P6" s="102"/>
       <c r="Q6" s="49"/>
       <c r="R6" s="49"/>
       <c r="S6" s="49"/>
@@ -3479,9 +3448,9 @@
       <c r="Y6" s="49"/>
       <c r="Z6" s="49"/>
       <c r="AA6" s="49"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
       <c r="AE6" s="49"/>
       <c r="AF6" s="49"/>
       <c r="AG6" s="49"/>
@@ -3493,9 +3462,9 @@
       <c r="AM6" s="49"/>
       <c r="AN6" s="49"/>
       <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
+      <c r="AP6" s="102"/>
       <c r="AQ6" s="49"/>
-      <c r="AR6" s="135"/>
+      <c r="AR6" s="102"/>
       <c r="AS6" s="49"/>
       <c r="AT6" s="49"/>
       <c r="AU6" s="49"/>
@@ -3507,9 +3476,9 @@
       <c r="BA6" s="49"/>
       <c r="BB6" s="49"/>
       <c r="BC6" s="49"/>
-      <c r="BD6" s="135"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="135"/>
+      <c r="BD6" s="102"/>
+      <c r="BE6" s="102"/>
+      <c r="BF6" s="102"/>
       <c r="BG6" s="49"/>
       <c r="BH6" s="49"/>
       <c r="BI6" s="49"/>
@@ -3524,7 +3493,7 @@
       <c r="BR6" s="62"/>
     </row>
     <row r="7" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="122" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="49"/>
@@ -3540,7 +3509,7 @@
       <c r="M7" s="49"/>
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
-      <c r="P7" s="135"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="49"/>
       <c r="R7" s="49"/>
       <c r="S7" s="49"/>
@@ -3552,9 +3521,9 @@
       <c r="Y7" s="49"/>
       <c r="Z7" s="49"/>
       <c r="AA7" s="49"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="135"/>
-      <c r="AD7" s="135"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="49"/>
@@ -3566,9 +3535,9 @@
       <c r="AM7" s="49"/>
       <c r="AN7" s="49"/>
       <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
+      <c r="AP7" s="102"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="135"/>
+      <c r="AR7" s="102"/>
       <c r="AS7" s="49"/>
       <c r="AT7" s="49"/>
       <c r="AU7" s="49"/>
@@ -3580,9 +3549,9 @@
       <c r="BA7" s="49"/>
       <c r="BB7" s="49"/>
       <c r="BC7" s="49"/>
-      <c r="BD7" s="135"/>
-      <c r="BE7" s="135"/>
-      <c r="BF7" s="135"/>
+      <c r="BD7" s="102"/>
+      <c r="BE7" s="102"/>
+      <c r="BF7" s="102"/>
       <c r="BG7" s="49"/>
       <c r="BH7" s="49"/>
       <c r="BI7" s="49"/>
@@ -3597,21 +3566,21 @@
       <c r="BR7" s="62"/>
     </row>
     <row r="8" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="109"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
-      <c r="P8" s="135"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="49"/>
       <c r="S8" s="49"/>
@@ -3623,9 +3592,9 @@
       <c r="Y8" s="49"/>
       <c r="Z8" s="49"/>
       <c r="AA8" s="49"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="135"/>
-      <c r="AD8" s="135"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
       <c r="AE8" s="49"/>
       <c r="AF8" s="49"/>
       <c r="AG8" s="49"/>
@@ -3637,9 +3606,9 @@
       <c r="AM8" s="49"/>
       <c r="AN8" s="49"/>
       <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
+      <c r="AP8" s="102"/>
       <c r="AQ8" s="49"/>
-      <c r="AR8" s="135"/>
+      <c r="AR8" s="102"/>
       <c r="AS8" s="49"/>
       <c r="AT8" s="49"/>
       <c r="AU8" s="49"/>
@@ -3651,9 +3620,9 @@
       <c r="BA8" s="49"/>
       <c r="BB8" s="49"/>
       <c r="BC8" s="49"/>
-      <c r="BD8" s="135"/>
-      <c r="BE8" s="135"/>
-      <c r="BF8" s="135"/>
+      <c r="BD8" s="102"/>
+      <c r="BE8" s="102"/>
+      <c r="BF8" s="102"/>
       <c r="BG8" s="49"/>
       <c r="BH8" s="49"/>
       <c r="BI8" s="49"/>
@@ -3668,8 +3637,8 @@
       <c r="BR8" s="62"/>
     </row>
     <row r="9" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="110" t="s">
-        <v>65</v>
+      <c r="B9" s="121" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -3684,7 +3653,7 @@
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="49"/>
-      <c r="P9" s="135"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="49"/>
       <c r="R9" s="67"/>
       <c r="S9" s="49"/>
@@ -3696,9 +3665,9 @@
       <c r="Y9" s="49"/>
       <c r="Z9" s="49"/>
       <c r="AA9" s="49"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
       <c r="AE9" s="49"/>
       <c r="AF9" s="49"/>
       <c r="AG9" s="49"/>
@@ -3710,9 +3679,9 @@
       <c r="AM9" s="49"/>
       <c r="AN9" s="49"/>
       <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
+      <c r="AP9" s="102"/>
       <c r="AQ9" s="49"/>
-      <c r="AR9" s="135"/>
+      <c r="AR9" s="102"/>
       <c r="AS9" s="49"/>
       <c r="AT9" s="49"/>
       <c r="AU9" s="49"/>
@@ -3724,9 +3693,9 @@
       <c r="BA9" s="49"/>
       <c r="BB9" s="49"/>
       <c r="BC9" s="49"/>
-      <c r="BD9" s="135"/>
-      <c r="BE9" s="135"/>
-      <c r="BF9" s="135"/>
+      <c r="BD9" s="102"/>
+      <c r="BE9" s="102"/>
+      <c r="BF9" s="102"/>
       <c r="BG9" s="49"/>
       <c r="BH9" s="49"/>
       <c r="BI9" s="49"/>
@@ -3741,7 +3710,7 @@
       <c r="BR9" s="62"/>
     </row>
     <row r="10" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="110"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -3749,13 +3718,13 @@
       <c r="G10" s="49"/>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
-      <c r="P10" s="135"/>
+      <c r="P10" s="102"/>
       <c r="Q10" s="49"/>
       <c r="R10" s="49"/>
       <c r="S10" s="49"/>
@@ -3767,9 +3736,9 @@
       <c r="Y10" s="49"/>
       <c r="Z10" s="49"/>
       <c r="AA10" s="49"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
       <c r="AE10" s="49"/>
       <c r="AF10" s="49"/>
       <c r="AG10" s="49"/>
@@ -3781,9 +3750,9 @@
       <c r="AM10" s="49"/>
       <c r="AN10" s="49"/>
       <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
+      <c r="AP10" s="102"/>
       <c r="AQ10" s="49"/>
-      <c r="AR10" s="135"/>
+      <c r="AR10" s="102"/>
       <c r="AS10" s="49"/>
       <c r="AT10" s="49"/>
       <c r="AU10" s="49"/>
@@ -3795,9 +3764,9 @@
       <c r="BA10" s="49"/>
       <c r="BB10" s="49"/>
       <c r="BC10" s="49"/>
-      <c r="BD10" s="135"/>
-      <c r="BE10" s="135"/>
-      <c r="BF10" s="135"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="102"/>
       <c r="BG10" s="49"/>
       <c r="BH10" s="49"/>
       <c r="BI10" s="49"/>
@@ -3812,8 +3781,8 @@
       <c r="BR10" s="62"/>
     </row>
     <row r="11" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="110" t="s">
-        <v>66</v>
+      <c r="B11" s="121" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -3828,7 +3797,7 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
       <c r="O11" s="49"/>
-      <c r="P11" s="135"/>
+      <c r="P11" s="102"/>
       <c r="Q11" s="49"/>
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
@@ -3840,9 +3809,9 @@
       <c r="Y11" s="49"/>
       <c r="Z11" s="49"/>
       <c r="AA11" s="49"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
       <c r="AE11" s="49"/>
       <c r="AF11" s="49"/>
       <c r="AG11" s="49"/>
@@ -3854,9 +3823,9 @@
       <c r="AM11" s="49"/>
       <c r="AN11" s="49"/>
       <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
+      <c r="AP11" s="102"/>
       <c r="AQ11" s="49"/>
-      <c r="AR11" s="135"/>
+      <c r="AR11" s="102"/>
       <c r="AS11" s="49"/>
       <c r="AT11" s="49"/>
       <c r="AU11" s="49"/>
@@ -3868,9 +3837,9 @@
       <c r="BA11" s="49"/>
       <c r="BB11" s="49"/>
       <c r="BC11" s="49"/>
-      <c r="BD11" s="135"/>
-      <c r="BE11" s="135"/>
-      <c r="BF11" s="135"/>
+      <c r="BD11" s="102"/>
+      <c r="BE11" s="102"/>
+      <c r="BF11" s="102"/>
       <c r="BG11" s="49"/>
       <c r="BH11" s="49"/>
       <c r="BI11" s="49"/>
@@ -3885,7 +3854,7 @@
       <c r="BR11" s="62"/>
     </row>
     <row r="12" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="110"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -3899,7 +3868,7 @@
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
-      <c r="P12" s="135"/>
+      <c r="P12" s="102"/>
       <c r="Q12" s="49"/>
       <c r="R12" s="49"/>
       <c r="S12" s="49"/>
@@ -3911,9 +3880,9 @@
       <c r="Y12" s="49"/>
       <c r="Z12" s="49"/>
       <c r="AA12" s="49"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
       <c r="AE12" s="49"/>
       <c r="AF12" s="49"/>
       <c r="AG12" s="49"/>
@@ -3925,9 +3894,9 @@
       <c r="AM12" s="49"/>
       <c r="AN12" s="49"/>
       <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
+      <c r="AP12" s="102"/>
       <c r="AQ12" s="49"/>
-      <c r="AR12" s="135"/>
+      <c r="AR12" s="102"/>
       <c r="AS12" s="49"/>
       <c r="AT12" s="49"/>
       <c r="AU12" s="49"/>
@@ -3939,9 +3908,9 @@
       <c r="BA12" s="49"/>
       <c r="BB12" s="49"/>
       <c r="BC12" s="49"/>
-      <c r="BD12" s="135"/>
-      <c r="BE12" s="135"/>
-      <c r="BF12" s="135"/>
+      <c r="BD12" s="102"/>
+      <c r="BE12" s="102"/>
+      <c r="BF12" s="102"/>
       <c r="BG12" s="49"/>
       <c r="BH12" s="49"/>
       <c r="BI12" s="49"/>
@@ -3956,7 +3925,7 @@
       <c r="BR12" s="62"/>
     </row>
     <row r="13" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="121" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="49"/>
@@ -3972,7 +3941,7 @@
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
-      <c r="P13" s="135"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="49"/>
       <c r="R13" s="68"/>
       <c r="S13" s="51"/>
@@ -3984,9 +3953,9 @@
       <c r="Y13" s="49"/>
       <c r="Z13" s="49"/>
       <c r="AA13" s="49"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
       <c r="AE13" s="49"/>
       <c r="AF13" s="49"/>
       <c r="AG13" s="49"/>
@@ -3998,9 +3967,9 @@
       <c r="AM13" s="49"/>
       <c r="AN13" s="49"/>
       <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
+      <c r="AP13" s="102"/>
       <c r="AQ13" s="49"/>
-      <c r="AR13" s="135"/>
+      <c r="AR13" s="102"/>
       <c r="AS13" s="49"/>
       <c r="AT13" s="49"/>
       <c r="AU13" s="49"/>
@@ -4012,9 +3981,9 @@
       <c r="BA13" s="49"/>
       <c r="BB13" s="49"/>
       <c r="BC13" s="49"/>
-      <c r="BD13" s="135"/>
-      <c r="BE13" s="135"/>
-      <c r="BF13" s="135"/>
+      <c r="BD13" s="102"/>
+      <c r="BE13" s="102"/>
+      <c r="BF13" s="102"/>
       <c r="BG13" s="49"/>
       <c r="BH13" s="49"/>
       <c r="BI13" s="49"/>
@@ -4029,7 +3998,7 @@
       <c r="BR13" s="62"/>
     </row>
     <row r="14" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="110"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -4043,7 +4012,7 @@
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
-      <c r="P14" s="135"/>
+      <c r="P14" s="102"/>
       <c r="Q14" s="49"/>
       <c r="R14" s="49"/>
       <c r="S14" s="49"/>
@@ -4055,9 +4024,9 @@
       <c r="Y14" s="49"/>
       <c r="Z14" s="49"/>
       <c r="AA14" s="49"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="49"/>
       <c r="AG14" s="49"/>
@@ -4069,9 +4038,9 @@
       <c r="AM14" s="49"/>
       <c r="AN14" s="49"/>
       <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
+      <c r="AP14" s="102"/>
       <c r="AQ14" s="49"/>
-      <c r="AR14" s="135"/>
+      <c r="AR14" s="102"/>
       <c r="AS14" s="49"/>
       <c r="AT14" s="49"/>
       <c r="AU14" s="49"/>
@@ -4083,9 +4052,9 @@
       <c r="BA14" s="49"/>
       <c r="BB14" s="49"/>
       <c r="BC14" s="49"/>
-      <c r="BD14" s="135"/>
-      <c r="BE14" s="135"/>
-      <c r="BF14" s="135"/>
+      <c r="BD14" s="102"/>
+      <c r="BE14" s="102"/>
+      <c r="BF14" s="102"/>
       <c r="BG14" s="49"/>
       <c r="BH14" s="49"/>
       <c r="BI14" s="49"/>
@@ -4100,8 +4069,8 @@
       <c r="BR14" s="62"/>
     </row>
     <row r="15" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="109" t="s">
-        <v>67</v>
+      <c r="B15" s="122" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
@@ -4116,7 +4085,7 @@
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
-      <c r="P15" s="135"/>
+      <c r="P15" s="102"/>
       <c r="Q15" s="49"/>
       <c r="R15" s="49"/>
       <c r="S15" s="49"/>
@@ -4128,9 +4097,9 @@
       <c r="Y15" s="51"/>
       <c r="Z15" s="51"/>
       <c r="AA15" s="49"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
       <c r="AE15" s="49"/>
       <c r="AF15" s="49"/>
       <c r="AG15" s="49"/>
@@ -4142,9 +4111,9 @@
       <c r="AM15" s="49"/>
       <c r="AN15" s="49"/>
       <c r="AO15" s="49"/>
-      <c r="AP15" s="49"/>
+      <c r="AP15" s="102"/>
       <c r="AQ15" s="49"/>
-      <c r="AR15" s="135"/>
+      <c r="AR15" s="102"/>
       <c r="AS15" s="49"/>
       <c r="AT15" s="49"/>
       <c r="AU15" s="49"/>
@@ -4156,9 +4125,9 @@
       <c r="BA15" s="49"/>
       <c r="BB15" s="49"/>
       <c r="BC15" s="49"/>
-      <c r="BD15" s="135"/>
-      <c r="BE15" s="135"/>
-      <c r="BF15" s="135"/>
+      <c r="BD15" s="102"/>
+      <c r="BE15" s="102"/>
+      <c r="BF15" s="102"/>
       <c r="BG15" s="49"/>
       <c r="BH15" s="49"/>
       <c r="BI15" s="49"/>
@@ -4173,7 +4142,7 @@
       <c r="BR15" s="62"/>
     </row>
     <row r="16" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -4187,7 +4156,7 @@
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
-      <c r="P16" s="135"/>
+      <c r="P16" s="102"/>
       <c r="Q16" s="49"/>
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
@@ -4199,9 +4168,9 @@
       <c r="Y16" s="49"/>
       <c r="Z16" s="49"/>
       <c r="AA16" s="49"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
       <c r="AE16" s="49"/>
       <c r="AF16" s="49"/>
       <c r="AG16" s="49"/>
@@ -4213,9 +4182,9 @@
       <c r="AM16" s="49"/>
       <c r="AN16" s="49"/>
       <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
+      <c r="AP16" s="102"/>
       <c r="AQ16" s="49"/>
-      <c r="AR16" s="135"/>
+      <c r="AR16" s="102"/>
       <c r="AS16" s="49"/>
       <c r="AT16" s="49"/>
       <c r="AU16" s="49"/>
@@ -4227,9 +4196,9 @@
       <c r="BA16" s="49"/>
       <c r="BB16" s="49"/>
       <c r="BC16" s="49"/>
-      <c r="BD16" s="135"/>
-      <c r="BE16" s="135"/>
-      <c r="BF16" s="135"/>
+      <c r="BD16" s="102"/>
+      <c r="BE16" s="102"/>
+      <c r="BF16" s="102"/>
       <c r="BG16" s="49"/>
       <c r="BH16" s="49"/>
       <c r="BI16" s="49"/>
@@ -4244,8 +4213,8 @@
       <c r="BR16" s="62"/>
     </row>
     <row r="17" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="109" t="s">
-        <v>68</v>
+      <c r="B17" s="122" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -4260,7 +4229,7 @@
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
-      <c r="P17" s="135"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="49"/>
       <c r="R17" s="49"/>
       <c r="S17" s="49"/>
@@ -4272,9 +4241,9 @@
       <c r="Y17" s="49"/>
       <c r="Z17" s="51"/>
       <c r="AA17" s="51"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
       <c r="AE17" s="49"/>
       <c r="AF17" s="51"/>
       <c r="AG17" s="51"/>
@@ -4286,9 +4255,9 @@
       <c r="AM17" s="49"/>
       <c r="AN17" s="49"/>
       <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
+      <c r="AP17" s="102"/>
       <c r="AQ17" s="49"/>
-      <c r="AR17" s="135"/>
+      <c r="AR17" s="102"/>
       <c r="AS17" s="49"/>
       <c r="AT17" s="49"/>
       <c r="AU17" s="49"/>
@@ -4300,9 +4269,9 @@
       <c r="BA17" s="49"/>
       <c r="BB17" s="49"/>
       <c r="BC17" s="49"/>
-      <c r="BD17" s="135"/>
-      <c r="BE17" s="135"/>
-      <c r="BF17" s="135"/>
+      <c r="BD17" s="102"/>
+      <c r="BE17" s="102"/>
+      <c r="BF17" s="102"/>
       <c r="BG17" s="49"/>
       <c r="BH17" s="49"/>
       <c r="BI17" s="49"/>
@@ -4317,7 +4286,7 @@
       <c r="BR17" s="62"/>
     </row>
     <row r="18" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
@@ -4331,7 +4300,7 @@
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
-      <c r="P18" s="135"/>
+      <c r="P18" s="102"/>
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
       <c r="S18" s="49"/>
@@ -4343,9 +4312,9 @@
       <c r="Y18" s="49"/>
       <c r="Z18" s="49"/>
       <c r="AA18" s="49"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
       <c r="AE18" s="49"/>
       <c r="AF18" s="49"/>
       <c r="AG18" s="49"/>
@@ -4357,9 +4326,9 @@
       <c r="AM18" s="49"/>
       <c r="AN18" s="49"/>
       <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
+      <c r="AP18" s="102"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="135"/>
+      <c r="AR18" s="102"/>
       <c r="AS18" s="49"/>
       <c r="AT18" s="49"/>
       <c r="AU18" s="49"/>
@@ -4371,9 +4340,9 @@
       <c r="BA18" s="49"/>
       <c r="BB18" s="49"/>
       <c r="BC18" s="49"/>
-      <c r="BD18" s="135"/>
-      <c r="BE18" s="135"/>
-      <c r="BF18" s="135"/>
+      <c r="BD18" s="102"/>
+      <c r="BE18" s="102"/>
+      <c r="BF18" s="102"/>
       <c r="BG18" s="49"/>
       <c r="BH18" s="49"/>
       <c r="BI18" s="49"/>
@@ -4388,7 +4357,7 @@
       <c r="BR18" s="62"/>
     </row>
     <row r="19" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="122" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="49"/>
@@ -4404,7 +4373,7 @@
       <c r="M19" s="49"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
-      <c r="P19" s="135"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="49"/>
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
@@ -4416,9 +4385,9 @@
       <c r="Y19" s="49"/>
       <c r="Z19" s="49"/>
       <c r="AA19" s="49"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
       <c r="AE19" s="49"/>
       <c r="AF19" s="51"/>
       <c r="AG19" s="51"/>
@@ -4430,9 +4399,9 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
+      <c r="AP19" s="102"/>
       <c r="AQ19" s="49"/>
-      <c r="AR19" s="135"/>
+      <c r="AR19" s="102"/>
       <c r="AS19" s="49"/>
       <c r="AT19" s="49"/>
       <c r="AU19" s="49"/>
@@ -4444,9 +4413,9 @@
       <c r="BA19" s="49"/>
       <c r="BB19" s="49"/>
       <c r="BC19" s="49"/>
-      <c r="BD19" s="135"/>
-      <c r="BE19" s="135"/>
-      <c r="BF19" s="135"/>
+      <c r="BD19" s="102"/>
+      <c r="BE19" s="102"/>
+      <c r="BF19" s="102"/>
       <c r="BG19" s="49"/>
       <c r="BH19" s="49"/>
       <c r="BI19" s="49"/>
@@ -4461,7 +4430,7 @@
       <c r="BR19" s="62"/>
     </row>
     <row r="20" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
@@ -4475,7 +4444,7 @@
       <c r="M20" s="49"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
-      <c r="P20" s="135"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
@@ -4487,9 +4456,9 @@
       <c r="Y20" s="49"/>
       <c r="Z20" s="49"/>
       <c r="AA20" s="49"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
       <c r="AE20" s="49"/>
       <c r="AF20" s="49"/>
       <c r="AG20" s="49"/>
@@ -4501,9 +4470,9 @@
       <c r="AM20" s="49"/>
       <c r="AN20" s="49"/>
       <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
+      <c r="AP20" s="102"/>
       <c r="AQ20" s="49"/>
-      <c r="AR20" s="135"/>
+      <c r="AR20" s="102"/>
       <c r="AS20" s="49"/>
       <c r="AT20" s="49"/>
       <c r="AU20" s="49"/>
@@ -4515,9 +4484,9 @@
       <c r="BA20" s="49"/>
       <c r="BB20" s="49"/>
       <c r="BC20" s="49"/>
-      <c r="BD20" s="135"/>
-      <c r="BE20" s="135"/>
-      <c r="BF20" s="135"/>
+      <c r="BD20" s="102"/>
+      <c r="BE20" s="102"/>
+      <c r="BF20" s="102"/>
       <c r="BG20" s="49"/>
       <c r="BH20" s="49"/>
       <c r="BI20" s="49"/>
@@ -4532,8 +4501,8 @@
       <c r="BR20" s="62"/>
     </row>
     <row r="21" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="110" t="s">
-        <v>70</v>
+      <c r="B21" s="121" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4548,7 +4517,7 @@
       <c r="M21" s="49"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
-      <c r="P21" s="135"/>
+      <c r="P21" s="102"/>
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
@@ -4560,9 +4529,9 @@
       <c r="Y21" s="49"/>
       <c r="Z21" s="49"/>
       <c r="AA21" s="49"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
       <c r="AE21" s="51"/>
       <c r="AF21" s="51"/>
       <c r="AG21" s="51"/>
@@ -4574,9 +4543,9 @@
       <c r="AM21" s="49"/>
       <c r="AN21" s="49"/>
       <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
+      <c r="AP21" s="102"/>
       <c r="AQ21" s="49"/>
-      <c r="AR21" s="135"/>
+      <c r="AR21" s="102"/>
       <c r="AS21" s="49"/>
       <c r="AT21" s="49"/>
       <c r="AU21" s="49"/>
@@ -4588,9 +4557,9 @@
       <c r="BA21" s="49"/>
       <c r="BB21" s="49"/>
       <c r="BC21" s="49"/>
-      <c r="BD21" s="135"/>
-      <c r="BE21" s="135"/>
-      <c r="BF21" s="135"/>
+      <c r="BD21" s="102"/>
+      <c r="BE21" s="102"/>
+      <c r="BF21" s="102"/>
       <c r="BG21" s="49"/>
       <c r="BH21" s="49"/>
       <c r="BI21" s="49"/>
@@ -4605,7 +4574,7 @@
       <c r="BR21" s="62"/>
     </row>
     <row r="22" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="110"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
@@ -4619,7 +4588,7 @@
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
-      <c r="P22" s="135"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
       <c r="S22" s="49"/>
@@ -4631,9 +4600,9 @@
       <c r="Y22" s="49"/>
       <c r="Z22" s="49"/>
       <c r="AA22" s="49"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="49"/>
       <c r="AG22" s="49"/>
@@ -4645,9 +4614,9 @@
       <c r="AM22" s="49"/>
       <c r="AN22" s="49"/>
       <c r="AO22" s="49"/>
-      <c r="AP22" s="49"/>
+      <c r="AP22" s="102"/>
       <c r="AQ22" s="49"/>
-      <c r="AR22" s="135"/>
+      <c r="AR22" s="102"/>
       <c r="AS22" s="49"/>
       <c r="AT22" s="49"/>
       <c r="AU22" s="49"/>
@@ -4659,9 +4628,9 @@
       <c r="BA22" s="49"/>
       <c r="BB22" s="49"/>
       <c r="BC22" s="49"/>
-      <c r="BD22" s="135"/>
-      <c r="BE22" s="135"/>
-      <c r="BF22" s="135"/>
+      <c r="BD22" s="102"/>
+      <c r="BE22" s="102"/>
+      <c r="BF22" s="102"/>
       <c r="BG22" s="49"/>
       <c r="BH22" s="49"/>
       <c r="BI22" s="49"/>
@@ -4676,8 +4645,8 @@
       <c r="BR22" s="62"/>
     </row>
     <row r="23" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="110" t="s">
-        <v>69</v>
+      <c r="B23" s="121" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4692,7 +4661,7 @@
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
-      <c r="P23" s="135"/>
+      <c r="P23" s="102"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="49"/>
       <c r="S23" s="49"/>
@@ -4704,9 +4673,9 @@
       <c r="Y23" s="49"/>
       <c r="Z23" s="49"/>
       <c r="AA23" s="49"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
       <c r="AE23" s="49"/>
       <c r="AF23" s="49"/>
       <c r="AG23" s="49"/>
@@ -4718,9 +4687,9 @@
       <c r="AM23" s="51"/>
       <c r="AN23" s="51"/>
       <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
+      <c r="AP23" s="102"/>
       <c r="AQ23" s="49"/>
-      <c r="AR23" s="135"/>
+      <c r="AR23" s="102"/>
       <c r="AS23" s="49"/>
       <c r="AT23" s="49"/>
       <c r="AU23" s="49"/>
@@ -4732,9 +4701,9 @@
       <c r="BA23" s="49"/>
       <c r="BB23" s="49"/>
       <c r="BC23" s="49"/>
-      <c r="BD23" s="135"/>
-      <c r="BE23" s="135"/>
-      <c r="BF23" s="135"/>
+      <c r="BD23" s="102"/>
+      <c r="BE23" s="102"/>
+      <c r="BF23" s="102"/>
       <c r="BG23" s="49"/>
       <c r="BH23" s="49"/>
       <c r="BI23" s="49"/>
@@ -4749,7 +4718,7 @@
       <c r="BR23" s="62"/>
     </row>
     <row r="24" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="110"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
@@ -4763,7 +4732,7 @@
       <c r="M24" s="49"/>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
-      <c r="P24" s="135"/>
+      <c r="P24" s="102"/>
       <c r="Q24" s="49"/>
       <c r="R24" s="49"/>
       <c r="S24" s="49"/>
@@ -4775,9 +4744,9 @@
       <c r="Y24" s="49"/>
       <c r="Z24" s="49"/>
       <c r="AA24" s="49"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
       <c r="AE24" s="49"/>
       <c r="AF24" s="49"/>
       <c r="AG24" s="49"/>
@@ -4789,9 +4758,9 @@
       <c r="AM24" s="49"/>
       <c r="AN24" s="49"/>
       <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
+      <c r="AP24" s="102"/>
       <c r="AQ24" s="49"/>
-      <c r="AR24" s="135"/>
+      <c r="AR24" s="102"/>
       <c r="AS24" s="49"/>
       <c r="AT24" s="49"/>
       <c r="AU24" s="49"/>
@@ -4803,9 +4772,9 @@
       <c r="BA24" s="49"/>
       <c r="BB24" s="49"/>
       <c r="BC24" s="49"/>
-      <c r="BD24" s="135"/>
-      <c r="BE24" s="135"/>
-      <c r="BF24" s="135"/>
+      <c r="BD24" s="102"/>
+      <c r="BE24" s="102"/>
+      <c r="BF24" s="102"/>
       <c r="BG24" s="49"/>
       <c r="BH24" s="49"/>
       <c r="BI24" s="49"/>
@@ -4820,7 +4789,7 @@
       <c r="BR24" s="62"/>
     </row>
     <row r="25" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="121" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="49"/>
@@ -4836,7 +4805,7 @@
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
-      <c r="P25" s="135"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
       <c r="S25" s="49"/>
@@ -4848,9 +4817,9 @@
       <c r="Y25" s="49"/>
       <c r="Z25" s="49"/>
       <c r="AA25" s="49"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
       <c r="AE25" s="49"/>
       <c r="AF25" s="49"/>
       <c r="AG25" s="49"/>
@@ -4862,9 +4831,9 @@
       <c r="AM25" s="49"/>
       <c r="AN25" s="51"/>
       <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
+      <c r="AP25" s="102"/>
       <c r="AQ25" s="49"/>
-      <c r="AR25" s="135"/>
+      <c r="AR25" s="102"/>
       <c r="AS25" s="49"/>
       <c r="AT25" s="49"/>
       <c r="AU25" s="49"/>
@@ -4876,9 +4845,9 @@
       <c r="BA25" s="49"/>
       <c r="BB25" s="49"/>
       <c r="BC25" s="49"/>
-      <c r="BD25" s="135"/>
-      <c r="BE25" s="135"/>
-      <c r="BF25" s="135"/>
+      <c r="BD25" s="102"/>
+      <c r="BE25" s="102"/>
+      <c r="BF25" s="102"/>
       <c r="BG25" s="49"/>
       <c r="BH25" s="49"/>
       <c r="BI25" s="49"/>
@@ -4893,7 +4862,7 @@
       <c r="BR25" s="62"/>
     </row>
     <row r="26" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="110"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
@@ -4907,7 +4876,7 @@
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
-      <c r="P26" s="135"/>
+      <c r="P26" s="102"/>
       <c r="Q26" s="49"/>
       <c r="R26" s="49"/>
       <c r="S26" s="49"/>
@@ -4919,9 +4888,9 @@
       <c r="Y26" s="49"/>
       <c r="Z26" s="49"/>
       <c r="AA26" s="49"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
       <c r="AE26" s="49"/>
       <c r="AF26" s="49"/>
       <c r="AG26" s="49"/>
@@ -4933,9 +4902,9 @@
       <c r="AM26" s="49"/>
       <c r="AN26" s="49"/>
       <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
+      <c r="AP26" s="102"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="135"/>
+      <c r="AR26" s="102"/>
       <c r="AS26" s="49"/>
       <c r="AT26" s="49"/>
       <c r="AU26" s="49"/>
@@ -4947,9 +4916,9 @@
       <c r="BA26" s="49"/>
       <c r="BB26" s="49"/>
       <c r="BC26" s="49"/>
-      <c r="BD26" s="135"/>
-      <c r="BE26" s="135"/>
-      <c r="BF26" s="135"/>
+      <c r="BD26" s="102"/>
+      <c r="BE26" s="102"/>
+      <c r="BF26" s="102"/>
       <c r="BG26" s="49"/>
       <c r="BH26" s="49"/>
       <c r="BI26" s="49"/>
@@ -4964,8 +4933,8 @@
       <c r="BR26" s="62"/>
     </row>
     <row r="27" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="109" t="s">
-        <v>71</v>
+      <c r="B27" s="122" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
@@ -4980,7 +4949,7 @@
       <c r="M27" s="49"/>
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
-      <c r="P27" s="135"/>
+      <c r="P27" s="102"/>
       <c r="Q27" s="49"/>
       <c r="R27" s="49"/>
       <c r="S27" s="49"/>
@@ -4992,9 +4961,9 @@
       <c r="Y27" s="49"/>
       <c r="Z27" s="49"/>
       <c r="AA27" s="49"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
       <c r="AE27" s="49"/>
       <c r="AF27" s="49"/>
       <c r="AG27" s="49"/>
@@ -5006,9 +4975,9 @@
       <c r="AM27" s="49"/>
       <c r="AN27" s="49"/>
       <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
+      <c r="AP27" s="102"/>
       <c r="AQ27" s="51"/>
-      <c r="AR27" s="135"/>
+      <c r="AR27" s="102"/>
       <c r="AS27" s="51"/>
       <c r="AT27" s="51"/>
       <c r="AU27" s="51"/>
@@ -5020,9 +4989,9 @@
       <c r="BA27" s="49"/>
       <c r="BB27" s="49"/>
       <c r="BC27" s="49"/>
-      <c r="BD27" s="135"/>
-      <c r="BE27" s="135"/>
-      <c r="BF27" s="135"/>
+      <c r="BD27" s="102"/>
+      <c r="BE27" s="102"/>
+      <c r="BF27" s="102"/>
       <c r="BG27" s="49"/>
       <c r="BH27" s="49"/>
       <c r="BI27" s="49"/>
@@ -5037,7 +5006,7 @@
       <c r="BR27" s="62"/>
     </row>
     <row r="28" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="109"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
@@ -5051,7 +5020,7 @@
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
-      <c r="P28" s="135"/>
+      <c r="P28" s="102"/>
       <c r="Q28" s="49"/>
       <c r="R28" s="49"/>
       <c r="S28" s="49"/>
@@ -5063,9 +5032,9 @@
       <c r="Y28" s="49"/>
       <c r="Z28" s="49"/>
       <c r="AA28" s="49"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
       <c r="AG28" s="49"/>
@@ -5077,9 +5046,9 @@
       <c r="AM28" s="49"/>
       <c r="AN28" s="49"/>
       <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
+      <c r="AP28" s="102"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="135"/>
+      <c r="AR28" s="102"/>
       <c r="AS28" s="49"/>
       <c r="AT28" s="49"/>
       <c r="AU28" s="49"/>
@@ -5091,9 +5060,9 @@
       <c r="BA28" s="49"/>
       <c r="BB28" s="49"/>
       <c r="BC28" s="49"/>
-      <c r="BD28" s="135"/>
-      <c r="BE28" s="135"/>
-      <c r="BF28" s="135"/>
+      <c r="BD28" s="102"/>
+      <c r="BE28" s="102"/>
+      <c r="BF28" s="102"/>
       <c r="BG28" s="49"/>
       <c r="BH28" s="49"/>
       <c r="BI28" s="49"/>
@@ -5108,8 +5077,8 @@
       <c r="BR28" s="62"/>
     </row>
     <row r="29" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="109" t="s">
-        <v>72</v>
+      <c r="B29" s="122" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
@@ -5124,7 +5093,7 @@
       <c r="M29" s="49"/>
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
-      <c r="P29" s="135"/>
+      <c r="P29" s="102"/>
       <c r="Q29" s="49"/>
       <c r="R29" s="49"/>
       <c r="S29" s="49"/>
@@ -5136,9 +5105,9 @@
       <c r="Y29" s="49"/>
       <c r="Z29" s="49"/>
       <c r="AA29" s="49"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
       <c r="AE29" s="49"/>
       <c r="AF29" s="49"/>
       <c r="AG29" s="49"/>
@@ -5150,9 +5119,9 @@
       <c r="AM29" s="49"/>
       <c r="AN29" s="49"/>
       <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
+      <c r="AP29" s="102"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="135"/>
+      <c r="AR29" s="102"/>
       <c r="AS29" s="49"/>
       <c r="AT29" s="49"/>
       <c r="AU29" s="49"/>
@@ -5164,9 +5133,9 @@
       <c r="BA29" s="49"/>
       <c r="BB29" s="49"/>
       <c r="BC29" s="49"/>
-      <c r="BD29" s="135"/>
-      <c r="BE29" s="135"/>
-      <c r="BF29" s="135"/>
+      <c r="BD29" s="102"/>
+      <c r="BE29" s="102"/>
+      <c r="BF29" s="102"/>
       <c r="BG29" s="49"/>
       <c r="BH29" s="49"/>
       <c r="BI29" s="49"/>
@@ -5181,7 +5150,7 @@
       <c r="BR29" s="62"/>
     </row>
     <row r="30" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
@@ -5195,7 +5164,7 @@
       <c r="M30" s="49"/>
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
-      <c r="P30" s="135"/>
+      <c r="P30" s="102"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="49"/>
       <c r="S30" s="49"/>
@@ -5207,9 +5176,9 @@
       <c r="Y30" s="49"/>
       <c r="Z30" s="49"/>
       <c r="AA30" s="49"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
       <c r="AE30" s="49"/>
       <c r="AF30" s="49"/>
       <c r="AG30" s="49"/>
@@ -5221,9 +5190,9 @@
       <c r="AM30" s="49"/>
       <c r="AN30" s="49"/>
       <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
+      <c r="AP30" s="102"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="135"/>
+      <c r="AR30" s="102"/>
       <c r="AS30" s="49"/>
       <c r="AT30" s="49"/>
       <c r="AU30" s="49"/>
@@ -5235,9 +5204,9 @@
       <c r="BA30" s="49"/>
       <c r="BB30" s="49"/>
       <c r="BC30" s="49"/>
-      <c r="BD30" s="135"/>
-      <c r="BE30" s="135"/>
-      <c r="BF30" s="135"/>
+      <c r="BD30" s="102"/>
+      <c r="BE30" s="102"/>
+      <c r="BF30" s="102"/>
       <c r="BG30" s="49"/>
       <c r="BH30" s="49"/>
       <c r="BI30" s="49"/>
@@ -5252,7 +5221,7 @@
       <c r="BR30" s="62"/>
     </row>
     <row r="31" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="122" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="49"/>
@@ -5268,7 +5237,7 @@
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
-      <c r="P31" s="135"/>
+      <c r="P31" s="102"/>
       <c r="Q31" s="49"/>
       <c r="R31" s="49"/>
       <c r="S31" s="49"/>
@@ -5280,9 +5249,9 @@
       <c r="Y31" s="49"/>
       <c r="Z31" s="49"/>
       <c r="AA31" s="49"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
       <c r="AE31" s="49"/>
       <c r="AF31" s="49"/>
       <c r="AG31" s="49"/>
@@ -5294,9 +5263,9 @@
       <c r="AM31" s="49"/>
       <c r="AN31" s="49"/>
       <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
+      <c r="AP31" s="102"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="135"/>
+      <c r="AR31" s="102"/>
       <c r="AS31" s="49"/>
       <c r="AT31" s="49"/>
       <c r="AU31" s="49"/>
@@ -5308,9 +5277,9 @@
       <c r="BA31" s="49"/>
       <c r="BB31" s="49"/>
       <c r="BC31" s="49"/>
-      <c r="BD31" s="135"/>
-      <c r="BE31" s="135"/>
-      <c r="BF31" s="135"/>
+      <c r="BD31" s="102"/>
+      <c r="BE31" s="102"/>
+      <c r="BF31" s="102"/>
       <c r="BG31" s="49"/>
       <c r="BH31" s="49"/>
       <c r="BI31" s="49"/>
@@ -5325,7 +5294,7 @@
       <c r="BR31" s="62"/>
     </row>
     <row r="32" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
       <c r="E32" s="49"/>
@@ -5339,7 +5308,7 @@
       <c r="M32" s="49"/>
       <c r="N32" s="49"/>
       <c r="O32" s="49"/>
-      <c r="P32" s="135"/>
+      <c r="P32" s="102"/>
       <c r="Q32" s="49"/>
       <c r="R32" s="49"/>
       <c r="S32" s="49"/>
@@ -5351,9 +5320,9 @@
       <c r="Y32" s="49"/>
       <c r="Z32" s="49"/>
       <c r="AA32" s="49"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
       <c r="AE32" s="49"/>
       <c r="AF32" s="49"/>
       <c r="AG32" s="49"/>
@@ -5365,9 +5334,9 @@
       <c r="AM32" s="49"/>
       <c r="AN32" s="49"/>
       <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
+      <c r="AP32" s="102"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="135"/>
+      <c r="AR32" s="102"/>
       <c r="AS32" s="49"/>
       <c r="AT32" s="49"/>
       <c r="AU32" s="49"/>
@@ -5379,9 +5348,9 @@
       <c r="BA32" s="49"/>
       <c r="BB32" s="49"/>
       <c r="BC32" s="49"/>
-      <c r="BD32" s="135"/>
-      <c r="BE32" s="135"/>
-      <c r="BF32" s="135"/>
+      <c r="BD32" s="102"/>
+      <c r="BE32" s="102"/>
+      <c r="BF32" s="102"/>
       <c r="BG32" s="49"/>
       <c r="BH32" s="49"/>
       <c r="BI32" s="49"/>
@@ -5396,7 +5365,7 @@
       <c r="BR32" s="62"/>
     </row>
     <row r="33" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="121" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="49"/>
@@ -5412,7 +5381,7 @@
       <c r="M33" s="49"/>
       <c r="N33" s="49"/>
       <c r="O33" s="49"/>
-      <c r="P33" s="135"/>
+      <c r="P33" s="102"/>
       <c r="Q33" s="49"/>
       <c r="R33" s="49"/>
       <c r="S33" s="49"/>
@@ -5424,9 +5393,9 @@
       <c r="Y33" s="49"/>
       <c r="Z33" s="49"/>
       <c r="AA33" s="49"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
       <c r="AE33" s="49"/>
       <c r="AF33" s="49"/>
       <c r="AG33" s="49"/>
@@ -5438,9 +5407,9 @@
       <c r="AM33" s="49"/>
       <c r="AN33" s="49"/>
       <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
+      <c r="AP33" s="102"/>
       <c r="AQ33" s="49"/>
-      <c r="AR33" s="135"/>
+      <c r="AR33" s="102"/>
       <c r="AS33" s="49"/>
       <c r="AT33" s="49"/>
       <c r="AU33" s="49"/>
@@ -5452,9 +5421,9 @@
       <c r="BA33" s="51"/>
       <c r="BB33" s="51"/>
       <c r="BC33" s="51"/>
-      <c r="BD33" s="135"/>
-      <c r="BE33" s="135"/>
-      <c r="BF33" s="135"/>
+      <c r="BD33" s="102"/>
+      <c r="BE33" s="102"/>
+      <c r="BF33" s="102"/>
       <c r="BG33" s="49"/>
       <c r="BH33" s="67"/>
       <c r="BI33" s="49"/>
@@ -5469,7 +5438,7 @@
       <c r="BR33" s="62"/>
     </row>
     <row r="34" spans="2:70" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="117"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
@@ -5483,7 +5452,7 @@
       <c r="M34" s="56"/>
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
-      <c r="P34" s="136"/>
+      <c r="P34" s="103"/>
       <c r="Q34" s="56"/>
       <c r="R34" s="56"/>
       <c r="S34" s="56"/>
@@ -5495,9 +5464,9 @@
       <c r="Y34" s="56"/>
       <c r="Z34" s="56"/>
       <c r="AA34" s="56"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="136"/>
-      <c r="AD34" s="136"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="103"/>
       <c r="AE34" s="56"/>
       <c r="AF34" s="56"/>
       <c r="AG34" s="56"/>
@@ -5509,9 +5478,9 @@
       <c r="AM34" s="56"/>
       <c r="AN34" s="56"/>
       <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
+      <c r="AP34" s="103"/>
       <c r="AQ34" s="56"/>
-      <c r="AR34" s="136"/>
+      <c r="AR34" s="103"/>
       <c r="AS34" s="56"/>
       <c r="AT34" s="56"/>
       <c r="AU34" s="56"/>
@@ -5523,9 +5492,9 @@
       <c r="BA34" s="56"/>
       <c r="BB34" s="56"/>
       <c r="BC34" s="56"/>
-      <c r="BD34" s="136"/>
-      <c r="BE34" s="136"/>
-      <c r="BF34" s="136"/>
+      <c r="BD34" s="103"/>
+      <c r="BE34" s="103"/>
+      <c r="BF34" s="103"/>
       <c r="BG34" s="56"/>
       <c r="BH34" s="56"/>
       <c r="BI34" s="56"/>
@@ -5540,106 +5509,113 @@
       <c r="BR34" s="63"/>
     </row>
     <row r="35" spans="2:70" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="137"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="139"/>
-      <c r="Q35" s="138"/>
-      <c r="R35" s="138"/>
-      <c r="S35" s="138"/>
-      <c r="T35" s="138"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="138"/>
-      <c r="W35" s="138"/>
-      <c r="X35" s="138"/>
-      <c r="Y35" s="138"/>
-      <c r="Z35" s="138"/>
-      <c r="AA35" s="138"/>
-      <c r="AB35" s="139"/>
-      <c r="AC35" s="138"/>
-      <c r="AD35" s="139"/>
-      <c r="AE35" s="138"/>
-      <c r="AF35" s="138"/>
-      <c r="AG35" s="138"/>
-      <c r="AH35" s="138"/>
-      <c r="AI35" s="138"/>
-      <c r="AJ35" s="138"/>
-      <c r="AK35" s="138"/>
-      <c r="AL35" s="138"/>
-      <c r="AM35" s="138"/>
-      <c r="AN35" s="138"/>
-      <c r="AO35" s="138"/>
-      <c r="AP35" s="138"/>
-      <c r="AQ35" s="138"/>
-      <c r="AR35" s="139"/>
-      <c r="AS35" s="138"/>
-      <c r="AT35" s="138"/>
-      <c r="AU35" s="138"/>
-      <c r="AV35" s="138"/>
-      <c r="AW35" s="138"/>
-      <c r="AX35" s="138"/>
-      <c r="AY35" s="138"/>
-      <c r="AZ35" s="138"/>
-      <c r="BA35" s="138"/>
-      <c r="BB35" s="138"/>
-      <c r="BC35" s="138"/>
-      <c r="BD35" s="138"/>
-      <c r="BE35" s="138"/>
-      <c r="BF35" s="139"/>
-      <c r="BG35" s="138"/>
-      <c r="BH35" s="138"/>
-      <c r="BI35" s="138"/>
-      <c r="BJ35" s="138"/>
-      <c r="BK35" s="138"/>
-      <c r="BL35" s="138"/>
-      <c r="BM35" s="138"/>
-      <c r="BN35" s="138"/>
-      <c r="BO35" s="138"/>
-      <c r="BP35" s="138"/>
-      <c r="BQ35" s="138"/>
-      <c r="BR35" s="138"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="105"/>
+      <c r="Y35" s="105"/>
+      <c r="Z35" s="105"/>
+      <c r="AA35" s="105"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="105"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="105"/>
+      <c r="AJ35" s="105"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="105"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="106"/>
+      <c r="AS35" s="105"/>
+      <c r="AT35" s="105"/>
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="105"/>
+      <c r="AW35" s="105"/>
+      <c r="AX35" s="105"/>
+      <c r="AY35" s="105"/>
+      <c r="AZ35" s="105"/>
+      <c r="BA35" s="105"/>
+      <c r="BB35" s="105"/>
+      <c r="BC35" s="105"/>
+      <c r="BD35" s="105"/>
+      <c r="BE35" s="105"/>
+      <c r="BF35" s="106"/>
+      <c r="BG35" s="105"/>
+      <c r="BH35" s="105"/>
+      <c r="BI35" s="105"/>
+      <c r="BJ35" s="105"/>
+      <c r="BK35" s="105"/>
+      <c r="BL35" s="105"/>
+      <c r="BM35" s="105"/>
+      <c r="BN35" s="105"/>
+      <c r="BO35" s="105"/>
+      <c r="BP35" s="105"/>
+      <c r="BQ35" s="105"/>
+      <c r="BR35" s="105"/>
     </row>
     <row r="36" spans="2:70" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
+      <c r="B36" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="119"/>
+      <c r="D36" s="120"/>
     </row>
     <row r="37" spans="2:70" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
+      <c r="B37" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="113"/>
+      <c r="D37" s="114"/>
     </row>
     <row r="38" spans="2:70" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="141" t="s">
-        <v>62</v>
+      <c r="B38" s="108" t="s">
+        <v>58</v>
       </c>
       <c r="C38" s="68"/>
-      <c r="D38" s="142"/>
+      <c r="D38" s="109"/>
     </row>
     <row r="39" spans="2:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="143" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="152"/>
+      <c r="B39" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="111"/>
+      <c r="D39" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:BR2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J3:BR3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
@@ -5653,13 +5629,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B2:BR2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J3:BR3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5668,10 +5637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P9"/>
+  <dimension ref="B1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D5" sqref="D5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5696,57 +5665,57 @@
   <sheetData>
     <row r="1" spans="2:16" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
+      <c r="B2" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="70">
         <v>2019</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="70" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
+        <v>40</v>
+      </c>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="73"/>
-      <c r="D3" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="D3" s="144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
       <c r="M3" s="74"/>
       <c r="N3" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="76"/>
       <c r="P3" s="77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -5754,74 +5723,74 @@
         <v>1</v>
       </c>
       <c r="C4" s="79"/>
-      <c r="D4" s="132" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
+      <c r="D4" s="145" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
       <c r="M4" s="80"/>
       <c r="N4" s="81" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="O4" s="82"/>
       <c r="P4" s="83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="84">
         <v>2</v>
       </c>
       <c r="C5" s="85"/>
-      <c r="D5" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
+      <c r="D5" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
       <c r="M5" s="86"/>
       <c r="N5" s="87" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O5" s="88"/>
       <c r="P5" s="89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="84">
         <v>3</v>
       </c>
       <c r="C6" s="85"/>
-      <c r="D6" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
+      <c r="D6" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
       <c r="M6" s="86"/>
       <c r="N6" s="87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O6" s="88"/>
       <c r="P6" s="89" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -5829,60 +5798,46 @@
         <v>4</v>
       </c>
       <c r="C7" s="85"/>
-      <c r="D7" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
+      <c r="D7" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
+      <c r="N7" s="87" t="s">
+        <v>72</v>
+      </c>
       <c r="O7" s="88"/>
-      <c r="P7" s="89"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="89"/>
-    </row>
-    <row r="9" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="103"/>
+      <c r="P7" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="D6:L6"/>
